--- a/doc/n64adv2_BOM.xlsx
+++ b/doc/n64adv2_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Peter\Documents\Workspaces\GitHub\n64rgb_mirror_adv2\advancedRGBmod\Main-PCB\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Peter\Documents\Workspaces\GitHub\n64rgb_project\n64adv2_pcb\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F96875-8BF9-4673-86A9-726AEFBD0BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD208951-60B8-432F-9989-AC31E6FD9E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7035" yWindow="2970" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7350" yWindow="4950" windowWidth="25005" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,28 @@
     <sheet name="Flex" sheetId="7" r:id="rId3"/>
     <sheet name="Jumper" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029" refMode="R1C1" concurrentCalc="0"/>
+  <calcPr calcId="191029" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="226">
   <si>
     <t>Designator</t>
   </si>
@@ -306,9 +317,6 @@
     <t>TLV70225DBVR</t>
   </si>
   <si>
-    <t>LDO 2.5V</t>
-  </si>
-  <si>
     <t>U11</t>
   </si>
   <si>
@@ -324,9 +332,6 @@
     <t>5.0X3.2</t>
   </si>
   <si>
-    <t>JTAG Connector (2x5 pins in 100mil pitch; THT or SMD)</t>
-  </si>
-  <si>
     <t>R12,R13,R22</t>
   </si>
   <si>
@@ -516,15 +521,6 @@
     <t>RN16</t>
   </si>
   <si>
-    <t xml:space="preserve">15166-0321 </t>
-  </si>
-  <si>
-    <t>30pin 0.5mm ffc cable, length 102mm</t>
-  </si>
-  <si>
-    <t>(additional)</t>
-  </si>
-  <si>
     <t>33ohm</t>
   </si>
   <si>
@@ -579,18 +575,12 @@
     <t>Labeled as VCCIO jumper for bank 6 and bank 7.</t>
   </si>
   <si>
-    <t>Set both to 2.5V in current setup!</t>
-  </si>
-  <si>
     <t>10M16SAE144</t>
   </si>
   <si>
     <t>10M25SAE144</t>
   </si>
   <si>
-    <t>R5,R16,R18</t>
-  </si>
-  <si>
     <t>1k to 5k</t>
   </si>
   <si>
@@ -636,15 +626,9 @@
     <t>CL10B103KB8NNNC</t>
   </si>
   <si>
-    <t>3-1734839-0</t>
-  </si>
-  <si>
     <t>3-1734592-0</t>
   </si>
   <si>
-    <t>contacts top, cable 0.3mm thick (flex + stiffener)</t>
-  </si>
-  <si>
     <t>contacts bottom, cable 0.3mm thick (flex + stiffener)</t>
   </si>
   <si>
@@ -658,6 +642,81 @@
   </si>
   <si>
     <t>R8</t>
+  </si>
+  <si>
+    <t>LDO 2.5V, 300mA</t>
+  </si>
+  <si>
+    <t>LDO 2.5V, 200mA</t>
+  </si>
+  <si>
+    <t>Alternative for U11 (same as U10)</t>
+  </si>
+  <si>
+    <t>R16,R18</t>
+  </si>
+  <si>
+    <t>Alternative for D2 (same as D1)</t>
+  </si>
+  <si>
+    <t>3020-10-0300-00</t>
+  </si>
+  <si>
+    <t>JTAG Connector (2x5 pins in 100mil pitch; SMD)</t>
+  </si>
+  <si>
+    <t>JTAG Connector (2x5 pins in 100mil pitch; THT)</t>
+  </si>
+  <si>
+    <t>Alternative for X2 as THT, but need to short pins</t>
+  </si>
+  <si>
+    <t>see Onboard USB Blaster page</t>
+  </si>
+  <si>
+    <t>RN1,RN2,RN3,RN4</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>RC0603FR-0747RL</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>With Schmitt-Trigger Buffer for Controller Line</t>
+  </si>
+  <si>
+    <t>Without Schmitt-Trigger Buffer for Controller Line</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>same as R2</t>
+  </si>
+  <si>
+    <t>Schmitt-Trigger Buffer</t>
+  </si>
+  <si>
+    <t>74LVC1G17DBV</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>DIY</t>
+  </si>
+  <si>
+    <t>DIY USB Blaster module project</t>
+  </si>
+  <si>
+    <t>Thx to ikari_01 (creator sd2snes / fxpak)</t>
+  </si>
+  <si>
+    <t>Set both to 2.5V in current setup! (shorted since N64Adv2_20220729 anyway)</t>
   </si>
 </sst>
 </file>
@@ -1501,7 +1560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -1510,14 +1569,14 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="43.42578125" customWidth="1"/>
     <col min="8" max="8" width="59.85546875" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1">
@@ -1561,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
@@ -1578,7 +1637,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -1586,7 +1645,7 @@
     <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1598,7 +1657,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -1614,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" ref="D6:D62" si="0">$C$1*C6</f>
+        <f t="shared" ref="D6:D65" si="0">$C$1*C6</f>
         <v>3</v>
       </c>
       <c r="E6" t="s">
@@ -1627,7 +1686,7 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1709,11 +1768,11 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D10" s="5"/>
       <c r="H10" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1746,21 +1805,21 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D12" s="5"/>
       <c r="H12" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1802,7 +1861,7 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>201</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
@@ -1812,10 +1871,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1825,44 +1884,37 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>202</v>
       </c>
       <c r="G16" t="s">
         <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
+      <c r="B17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="5"/>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>203</v>
       </c>
       <c r="G17" t="s">
         <v>19</v>
       </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1872,243 +1924,238 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>136</v>
-      </c>
-      <c r="B20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20">
+      <c r="A19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19">
         <v>1</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D19" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" t="s">
         <v>96</v>
       </c>
-      <c r="G20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>149</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>14</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D23" s="5">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>30</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D23" s="5"/>
-    </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>197</v>
-      </c>
-      <c r="C24">
+      <c r="B25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25">
         <v>2</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D25" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>17</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
         <v>25</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G25" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>167</v>
-      </c>
-      <c r="B25" t="s">
-        <v>199</v>
-      </c>
-      <c r="C25">
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26">
         <v>9</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D26" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>17</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>26</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G26" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B26" t="s">
-        <v>198</v>
-      </c>
-      <c r="C26">
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27">
         <v>8</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D27" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>17</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F27" t="s">
         <v>36</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G27" t="s">
         <v>27</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>170</v>
-      </c>
-      <c r="B27" t="s">
-        <v>200</v>
-      </c>
-      <c r="C27">
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28">
         <v>49</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D28" s="5">
         <f t="shared" si="0"/>
         <v>147</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>23</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F28" t="s">
         <v>24</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G28" t="s">
         <v>27</v>
       </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>169</v>
-      </c>
-      <c r="B28" t="s">
-        <v>201</v>
-      </c>
-      <c r="C28">
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29">
         <v>2</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D29" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>23</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F29" t="s">
         <v>28</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G29" t="s">
         <v>27</v>
       </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D29" s="5"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="D30" s="5"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C30">
+      <c r="B31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31">
         <v>1</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D31" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" t="s">
-        <v>27</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-      <c r="D31" s="5">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
       <c r="E31" t="s">
         <v>31</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="G31" t="s">
         <v>27</v>
@@ -2118,156 +2165,155 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>155</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>122</v>
+        <v>97</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D32" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
         <v>27</v>
       </c>
-      <c r="H32" t="s">
-        <v>208</v>
-      </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D33" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E33" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>58</v>
+      <c r="F33" t="s">
+        <v>100</v>
       </c>
       <c r="G33" t="s">
         <v>27</v>
       </c>
+      <c r="H33" t="s">
+        <v>199</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E34" t="s">
         <v>31</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="G34" t="s">
         <v>27</v>
       </c>
-      <c r="H34" t="s">
-        <v>207</v>
-      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D35" s="5">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E35" t="s">
         <v>31</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="3" t="s">
         <v>101</v>
       </c>
       <c r="G35" t="s">
         <v>27</v>
       </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="H35" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>155</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D36" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>59</v>
+      <c r="F36" t="s">
+        <v>99</v>
       </c>
       <c r="G36" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="5"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D37" s="5">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E37" t="s">
         <v>31</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G37" t="s">
         <v>27</v>
@@ -2278,23 +2324,23 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E38" t="s">
         <v>31</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="G38" t="s">
         <v>27</v>
@@ -2304,126 +2350,128 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D39" s="5"/>
+      <c r="A39" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
       <c r="H39" s="5"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40">
-        <v>4</v>
-      </c>
-      <c r="D40" s="5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="D40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>106</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>104</v>
+        <v>53</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="H41" s="5"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>108</v>
+      <c r="F42" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H42" s="5"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D43" s="5"/>
+      <c r="A43" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="H43" s="5"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="5">
-        <v>1</v>
-      </c>
-      <c r="D44" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F44" s="6"/>
-      <c r="G44" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" s="10"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="8"/>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="C45" s="5">
         <v>1</v>
@@ -2433,11 +2481,11 @@
         <v>3</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="5" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="7"/>
@@ -2445,10 +2493,10 @@
     </row>
     <row r="46" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C46" s="5">
         <v>1</v>
@@ -2458,7 +2506,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="5" t="s">
@@ -2470,95 +2518,106 @@
     </row>
     <row r="47" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" t="s">
-        <v>63</v>
+        <v>108</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="C47" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="5" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="H47" s="10"/>
       <c r="I47" s="7"/>
       <c r="J47" s="8"/>
     </row>
     <row r="48" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>150</v>
+      <c r="B48" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>70</v>
+        <v>205</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>75</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H48" s="10"/>
       <c r="I48" s="7"/>
       <c r="J48" s="8"/>
     </row>
     <row r="49" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="C49" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>153</v>
+        <v>70</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="5" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="H49" s="10"/>
       <c r="I49" s="7"/>
       <c r="J49" s="8"/>
     </row>
     <row r="50" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H50" s="10"/>
+      <c r="B50" t="s">
+        <v>148</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" s="6"/>
+      <c r="G50" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>75</v>
+      </c>
       <c r="I50" s="7"/>
       <c r="J50" s="8"/>
     </row>
     <row r="51" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>154</v>
+        <v>71</v>
+      </c>
+      <c r="B51" t="s">
+        <v>149</v>
       </c>
       <c r="C51" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>116</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="F51" s="6"/>
       <c r="G51" s="5" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="H51" s="10"/>
       <c r="I51" s="7"/>
@@ -2571,155 +2630,195 @@
     </row>
     <row r="53" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>203</v>
+        <v>152</v>
       </c>
       <c r="C53" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="F53" s="6"/>
-      <c r="H53" s="10" t="s">
-        <v>206</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H53" s="10"/>
       <c r="I53" s="7"/>
       <c r="J53" s="8"/>
     </row>
     <row r="54" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54"/>
-      <c r="F54" s="6"/>
-      <c r="H54" s="10" t="s">
-        <v>137</v>
-      </c>
+      <c r="H54" s="10"/>
       <c r="I54" s="7"/>
       <c r="J54" s="8"/>
     </row>
     <row r="55" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="9"/>
+      <c r="A55" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C55" s="5">
+        <v>1</v>
+      </c>
+      <c r="D55" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>196</v>
+      </c>
       <c r="F55" s="6"/>
-      <c r="H55" s="10"/>
+      <c r="H55" s="10" t="s">
+        <v>197</v>
+      </c>
       <c r="I55" s="7"/>
       <c r="J55" s="8"/>
     </row>
     <row r="56" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56" s="5">
-        <f>$C$1*C56</f>
-        <v>3</v>
-      </c>
-      <c r="E56"/>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56" s="5" t="s">
-        <v>98</v>
+      <c r="B56"/>
+      <c r="F56" s="6"/>
+      <c r="H56" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="I56" s="7"/>
       <c r="J56" s="8"/>
     </row>
     <row r="57" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57" s="5" t="s">
-        <v>138</v>
-      </c>
+      <c r="B57" s="9"/>
+      <c r="F57" s="6"/>
+      <c r="H57" s="10"/>
       <c r="I57" s="7"/>
       <c r="J57" s="8"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="58" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C58" s="5">
+        <v>1</v>
+      </c>
+      <c r="D58" s="5">
+        <f>$C$1*C58</f>
+        <v>3</v>
+      </c>
+      <c r="F58" s="6"/>
+      <c r="H58" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="I58" s="7"/>
+      <c r="J58" s="8"/>
+    </row>
+    <row r="59" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59"/>
+      <c r="E59" t="s">
+        <v>209</v>
+      </c>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="I59" s="7"/>
+      <c r="J59" s="8"/>
+    </row>
+    <row r="60" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I60" s="7"/>
+      <c r="J60" s="8"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B61" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C58">
+      <c r="C61">
         <v>1</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D61" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E61" t="s">
         <v>67</v>
       </c>
-      <c r="H58" s="5" t="s">
+      <c r="H61" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D59" s="5"/>
-      <c r="H59" s="5" t="s">
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62" s="5"/>
+      <c r="H62" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>51</v>
-      </c>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D61" s="5"/>
-      <c r="H61" s="5"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>38</v>
-      </c>
-      <c r="B62" t="s">
-        <v>37</v>
-      </c>
-      <c r="C62">
-        <v>2</v>
-      </c>
-      <c r="D62" s="5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E62" t="s">
-        <v>39</v>
-      </c>
-      <c r="G62" t="s">
-        <v>41</v>
-      </c>
-      <c r="H62" t="s">
-        <v>40</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="1"/>
+      <c r="A63" t="s">
+        <v>51</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="1"/>
+      <c r="D64" s="5"/>
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" t="s">
+        <v>39</v>
+      </c>
+      <c r="G65" t="s">
+        <v>41</v>
+      </c>
+      <c r="H65" t="s">
+        <v>40</v>
+      </c>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2732,537 +2831,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004AAC79-25A6-4906-AE7D-6BDBC0D3C19C}">
-  <dimension ref="A1:J60"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
-    <col min="8" max="8" width="59.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1">
-        <f>Main!C1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4"/>
-      <c r="F4" s="5"/>
-      <c r="G4"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
-        <f>$C$1*C5</f>
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5"/>
-      <c r="H5" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D6" s="5"/>
-      <c r="H6" t="s">
-        <v>141</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
-        <f>$C$1*C7</f>
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>146</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5">
-        <f>$C$1*C8</f>
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5">
-        <f>$C$1*C9</f>
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>192</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10" s="5">
-        <f>$C$1*C10</f>
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s">
-        <v>187</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5">
-        <f t="shared" ref="D11" si="0">$C$1*C11</f>
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5">
-        <f t="shared" ref="D12" si="1">$C$1*C12</f>
-        <v>3</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="D13" s="5"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="D14" s="5"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D22" s="5"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D23" s="5"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D24" s="5"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D25" s="5"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D26" s="5"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D27" s="5"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="D28" s="5"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="12"/>
-      <c r="D29" s="5"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="D30" s="5"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="D31" s="5"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="D32" s="5"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="D33" s="5"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="D34" s="5"/>
-      <c r="F34" s="3"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="D35" s="5"/>
-      <c r="F35" s="3"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="9"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F41" s="6"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="8"/>
-    </row>
-    <row r="42" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F42" s="6"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="8"/>
-    </row>
-    <row r="43" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F43" s="6"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="8"/>
-    </row>
-    <row r="44" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44"/>
-      <c r="F44" s="6"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="8"/>
-    </row>
-    <row r="45" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45"/>
-      <c r="F45" s="6"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="8"/>
-    </row>
-    <row r="46" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H46" s="10"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="8"/>
-    </row>
-    <row r="47" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H47" s="10"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="8"/>
-    </row>
-    <row r="48" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H48" s="10"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="8"/>
-    </row>
-    <row r="49" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="9"/>
-      <c r="F49" s="6"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="8"/>
-    </row>
-    <row r="50" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="9"/>
-      <c r="F50" s="6"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="8"/>
-    </row>
-    <row r="51" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="9"/>
-      <c r="F51" s="6"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="8"/>
-    </row>
-    <row r="52" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="8"/>
-    </row>
-    <row r="53" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="8"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="11"/>
-      <c r="D54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="13"/>
-      <c r="D55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D57" s="5"/>
-      <c r="H57" s="5"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D58" s="5"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3AB4C3-BCB0-4671-B852-9DDB2E84EA55}">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -3278,7 +2847,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1">
@@ -3332,98 +2901,695 @@
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <f>$C$1*C5</f>
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5"/>
+      <c r="H5" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6"/>
+      <c r="H6" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="5"/>
+      <c r="H7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <f>$C$1*C8</f>
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <f>$C$1*C9</f>
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <f>$C$1*C10</f>
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5">
+        <f>$C$1*C11</f>
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>180</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" ref="D12" si="0">$C$1*C12</f>
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" ref="D13" si="1">$C$1*C13</f>
+        <v>3</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="D14" s="5"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="D15" s="5"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="5"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D24" s="5"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="5"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="5"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D27" s="5"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D28" s="5"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="D29" s="5"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="12"/>
+      <c r="D30" s="5"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="D31" s="5"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="D32" s="5"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="D33" s="5"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="D34" s="5"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+      <c r="D35" s="5"/>
+      <c r="F35" s="3"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+      <c r="D36" s="5"/>
+      <c r="F36" s="3"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="9"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F42" s="6"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="8"/>
+    </row>
+    <row r="43" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F43" s="6"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="8"/>
+    </row>
+    <row r="44" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F44" s="6"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="8"/>
+    </row>
+    <row r="45" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45"/>
+      <c r="F45" s="6"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="8"/>
+    </row>
+    <row r="46" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46"/>
+      <c r="F46" s="6"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="8"/>
+    </row>
+    <row r="47" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H47" s="10"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="8"/>
+    </row>
+    <row r="48" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H48" s="10"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="8"/>
+    </row>
+    <row r="49" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H49" s="10"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="8"/>
+    </row>
+    <row r="50" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="9"/>
+      <c r="F50" s="6"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="8"/>
+    </row>
+    <row r="51" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="9"/>
+      <c r="F51" s="6"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="8"/>
+    </row>
+    <row r="52" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="9"/>
+      <c r="F52" s="6"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="8"/>
+    </row>
+    <row r="53" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="8"/>
+    </row>
+    <row r="54" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="8"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="11"/>
+      <c r="D55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="13"/>
+      <c r="D56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D58" s="5"/>
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D59" s="5"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3AB4C3-BCB0-4671-B852-9DDB2E84EA55}">
+  <dimension ref="A1:J55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="59.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1">
+        <f>Main!C1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5">
+        <f>$C$1*C4</f>
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="5">
         <f t="shared" ref="D5" si="0">$C$1*C5</f>
         <v>3</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H6" s="10"/>
+      <c r="B6" s="2"/>
+      <c r="D6" s="5"/>
+      <c r="F6" s="3"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7" s="5">
-        <f>$C$1*C7</f>
-        <v>12</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="10"/>
+      <c r="A7" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="5"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="D8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" ref="D8:D9" si="1">$C$1*C8</f>
+        <v>3</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="10"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>164</v>
+      <c r="A9" s="5" t="s">
+        <v>221</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" s="5">
-        <f>$C$1*C9</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H9" t="s">
-        <v>163</v>
-      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="10"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
       <c r="D10" s="5"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="5"/>
+      <c r="A12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" ref="D12" si="2">$C$1*C12</f>
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="5"/>
@@ -3439,6 +3605,8 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D17" s="5"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D18" s="5"/>
@@ -3466,18 +3634,19 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
       <c r="D23" s="5"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
+      <c r="B24" s="12"/>
       <c r="D24" s="5"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="12"/>
+      <c r="B25" s="2"/>
       <c r="D25" s="5"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -3485,8 +3654,7 @@
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="D26" s="5"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
@@ -3496,11 +3664,14 @@
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="D28" s="5"/>
-      <c r="F28" s="3"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="D29" s="5"/>
+      <c r="F29" s="3"/>
+      <c r="H29" s="5"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
@@ -3513,51 +3684,49 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
       <c r="D31" s="5"/>
-      <c r="F31" s="3"/>
       <c r="H31" s="5"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="9"/>
       <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="9"/>
+      <c r="B33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="6"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="6"/>
+      <c r="F34" s="5"/>
       <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+    <row r="36" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F36" s="6"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="8"/>
     </row>
     <row r="37" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F37" s="6"/>
@@ -3572,6 +3741,7 @@
       <c r="J38" s="8"/>
     </row>
     <row r="39" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39"/>
       <c r="F39" s="6"/>
       <c r="H39" s="10"/>
       <c r="I39" s="7"/>
@@ -3585,8 +3755,6 @@
       <c r="J40" s="8"/>
     </row>
     <row r="41" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41"/>
-      <c r="F41" s="6"/>
       <c r="H41" s="10"/>
       <c r="I41" s="7"/>
       <c r="J41" s="8"/>
@@ -3602,6 +3770,8 @@
       <c r="J43" s="8"/>
     </row>
     <row r="44" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="9"/>
+      <c r="F44" s="6"/>
       <c r="H44" s="10"/>
       <c r="I44" s="7"/>
       <c r="J44" s="8"/>
@@ -3621,9 +3791,11 @@
       <c r="J46" s="8"/>
     </row>
     <row r="47" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="9"/>
-      <c r="F47" s="6"/>
-      <c r="H47" s="10"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
       <c r="I47" s="7"/>
       <c r="J47" s="8"/>
     </row>
@@ -3636,47 +3808,38 @@
       <c r="I48" s="7"/>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="8"/>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="11"/>
+      <c r="D49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="11"/>
+      <c r="B50" s="13"/>
       <c r="D50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="13"/>
-      <c r="D51" s="5"/>
-      <c r="H51" s="5"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
+      <c r="D52" s="5"/>
+      <c r="H52" s="5"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D53" s="5"/>
-      <c r="H53" s="5"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D54" s="5"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
+      <c r="B54" s="1"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3700,10 +3863,10 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3712,68 +3875,68 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/doc/n64adv2_BOM.xlsx
+++ b/doc/n64adv2_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Peter\Documents\Workspaces\GitHub\n64rgb_project\n64adv2_pcb\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD208951-60B8-432F-9989-AC31E6FD9E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBCF5DD-8951-4683-B7CF-CC9124203003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7350" yWindow="4950" windowWidth="25005" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="231">
   <si>
     <t>Designator</t>
   </si>
@@ -161,9 +161,6 @@
     <t>GND shield finger</t>
   </si>
   <si>
-    <t>optional</t>
-  </si>
-  <si>
     <t>3,0mm x 4,5mm pad</t>
   </si>
   <si>
@@ -239,12 +236,6 @@
     <t>200mA Fuse</t>
   </si>
   <si>
-    <t>10029449-111RLF</t>
-  </si>
-  <si>
-    <t>HDMI Connector 19pin</t>
-  </si>
-  <si>
     <t>R3</t>
   </si>
   <si>
@@ -422,9 +413,6 @@
     <t>For user</t>
   </si>
   <si>
-    <t>For developer or as user alternative (more resources)</t>
-  </si>
-  <si>
     <t>Aliexpress</t>
   </si>
   <si>
@@ -452,9 +440,6 @@
     <t>optional if onboard USB Blaster is used  (see separate tab)</t>
   </si>
   <si>
-    <t>SS-53000-001</t>
-  </si>
-  <si>
     <t>TEI0005</t>
   </si>
   <si>
@@ -596,9 +581,6 @@
     <t>SPDIF output, e.g. for optical audio link</t>
   </si>
   <si>
-    <t>R5,R6,R7</t>
-  </si>
-  <si>
     <t>DSC1001CI1-050.0000T</t>
   </si>
   <si>
@@ -641,9 +623,6 @@
     <t>unpopulated, alternative values possible, ratio R41/R42 = 2 needed</t>
   </si>
   <si>
-    <t>R8</t>
-  </si>
-  <si>
     <t>LDO 2.5V, 300mA</t>
   </si>
   <si>
@@ -677,9 +656,6 @@
     <t>RN1,RN2,RN3,RN4</t>
   </si>
   <si>
-    <t>R2</t>
-  </si>
-  <si>
     <t>RC0603FR-0747RL</t>
   </si>
   <si>
@@ -692,12 +668,6 @@
     <t>Without Schmitt-Trigger Buffer for Controller Line</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>same as R2</t>
-  </si>
-  <si>
     <t>Schmitt-Trigger Buffer</t>
   </si>
   <si>
@@ -717,6 +687,51 @@
   </si>
   <si>
     <t>Set both to 2.5V in current setup! (shorted since N64Adv2_20220729 anyway)</t>
+  </si>
+  <si>
+    <t>HDMI Connector 19pin with SMD mounted shield</t>
+  </si>
+  <si>
+    <t>2000-1-2-41-00-BK</t>
+  </si>
+  <si>
+    <t>R5,R8</t>
+  </si>
+  <si>
+    <t>R6,R7</t>
+  </si>
+  <si>
+    <t>For developer or as user alternative (more FPGA resources)</t>
+  </si>
+  <si>
+    <t>optional (must not be used if no-cut mod is used)</t>
+  </si>
+  <si>
+    <t>R1,R2</t>
+  </si>
+  <si>
+    <t>Solder Jumper</t>
+  </si>
+  <si>
+    <t>Close this jumper</t>
+  </si>
+  <si>
+    <t>Leave this jumper open</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>SJ1</t>
+  </si>
+  <si>
+    <t>Jumper on Flex</t>
+  </si>
+  <si>
+    <t>Solder Jumper: Close if you do not use a Schmitt trigger buffer (U1, C1)</t>
+  </si>
+  <si>
+    <t>Feedback signal from N64Adv2 for VI-DeBlur setting</t>
   </si>
 </sst>
 </file>
@@ -1560,9 +1575,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -1576,7 +1591,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1">
@@ -1591,7 +1606,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>5</v>
@@ -1620,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
@@ -1630,14 +1645,14 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -1645,19 +1660,19 @@
     <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>127</v>
+        <v>220</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -1667,26 +1682,26 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" ref="D6:D65" si="0">$C$1*C6</f>
+        <f t="shared" ref="D6:D61" si="0">$C$1*C6</f>
         <v>3</v>
       </c>
       <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
         <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1696,7 +1711,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1706,13 +1721,13 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1722,7 +1737,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1732,10 +1747,10 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1745,7 +1760,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1755,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
         <v>20</v>
@@ -1768,21 +1783,21 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D10" s="5"/>
       <c r="H10" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1792,7 +1807,7 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s">
         <v>20</v>
@@ -1805,21 +1820,21 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D12" s="5"/>
       <c r="H12" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1829,13 +1844,13 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
         <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1848,10 +1863,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1861,7 +1876,7 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
@@ -1871,10 +1886,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1884,24 +1899,24 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G16" t="s">
         <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G17" t="s">
         <v>19</v>
@@ -1911,10 +1926,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1924,7 +1939,7 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s">
         <v>19</v>
@@ -1932,10 +1947,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1945,7 +1960,7 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s">
         <v>19</v>
@@ -1956,10 +1971,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1969,10 +1984,10 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1980,7 +1995,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -2007,7 +2022,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -2030,10 +2045,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B26" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C26">
         <v>9</v>
@@ -2056,10 +2071,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B27" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C27">
         <v>8</v>
@@ -2082,10 +2097,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B28" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C28">
         <v>49</v>
@@ -2108,10 +2123,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B29" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -2139,10 +2154,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2155,7 +2170,7 @@
         <v>31</v>
       </c>
       <c r="F31" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G31" t="s">
         <v>27</v>
@@ -2165,17 +2180,17 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" s="5">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E32" t="s">
         <v>31</v>
@@ -2191,10 +2206,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -2207,23 +2222,23 @@
         <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G33" t="s">
         <v>27</v>
       </c>
       <c r="H33" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -2236,7 +2251,7 @@
         <v>31</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G34" t="s">
         <v>27</v>
@@ -2244,10 +2259,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2260,21 +2275,21 @@
         <v>31</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G35" t="s">
         <v>27</v>
       </c>
       <c r="H35" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -2287,7 +2302,7 @@
         <v>31</v>
       </c>
       <c r="F36" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G36" t="s">
         <v>27</v>
@@ -2300,7 +2315,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2313,7 +2328,7 @@
         <v>31</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G37" t="s">
         <v>27</v>
@@ -2324,10 +2339,10 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -2340,7 +2355,7 @@
         <v>31</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G38" t="s">
         <v>27</v>
@@ -2351,10 +2366,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2367,7 +2382,7 @@
         <v>31</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G39" t="s">
         <v>27</v>
@@ -2384,10 +2399,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -2397,10 +2412,10 @@
         <v>12</v>
       </c>
       <c r="E41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>15</v>
@@ -2411,10 +2426,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -2427,7 +2442,7 @@
         <v>34</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>15</v>
@@ -2435,10 +2450,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2451,7 +2466,7 @@
         <v>34</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>15</v>
@@ -2468,10 +2483,10 @@
     </row>
     <row r="45" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C45" s="5">
         <v>1</v>
@@ -2481,7 +2496,7 @@
         <v>3</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="5" t="s">
@@ -2493,10 +2508,10 @@
     </row>
     <row r="46" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C46" s="5">
         <v>1</v>
@@ -2506,7 +2521,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="5" t="s">
@@ -2518,10 +2533,10 @@
     </row>
     <row r="47" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C47" s="5">
         <v>1</v>
@@ -2531,7 +2546,7 @@
         <v>3</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="5" t="s">
@@ -2543,10 +2558,10 @@
     </row>
     <row r="48" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="5" t="s">
@@ -2558,10 +2573,10 @@
     </row>
     <row r="49" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C49" s="5">
         <v>2</v>
@@ -2571,11 +2586,11 @@
         <v>6</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H49" s="10"/>
       <c r="I49" s="7"/>
@@ -2583,27 +2598,27 @@
     </row>
     <row r="50" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="8"/>
     </row>
     <row r="51" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B51" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C51" s="5">
         <v>1</v>
@@ -2613,11 +2628,11 @@
         <v>3</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H51" s="10"/>
       <c r="I51" s="7"/>
@@ -2630,10 +2645,10 @@
     </row>
     <row r="53" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C53" s="5">
         <v>2</v>
@@ -2643,10 +2658,10 @@
         <v>6</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H53" s="10"/>
       <c r="I53" s="7"/>
@@ -2659,10 +2674,10 @@
     </row>
     <row r="55" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C55" s="5">
         <v>1</v>
@@ -2672,11 +2687,11 @@
         <v>3</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F55" s="6"/>
       <c r="H55" s="10" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I55" s="7"/>
       <c r="J55" s="8"/>
@@ -2685,7 +2700,7 @@
       <c r="B56"/>
       <c r="F56" s="6"/>
       <c r="H56" s="10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I56" s="7"/>
       <c r="J56" s="8"/>
@@ -2699,10 +2714,10 @@
     </row>
     <row r="58" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C58" s="5">
         <v>1</v>
@@ -2713,7 +2728,7 @@
       </c>
       <c r="F58" s="6"/>
       <c r="H58" s="5" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I58" s="7"/>
       <c r="J58" s="8"/>
@@ -2724,12 +2739,12 @@
       </c>
       <c r="C59"/>
       <c r="E59" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F59"/>
       <c r="G59"/>
       <c r="H59" s="5" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="I59" s="7"/>
       <c r="J59" s="8"/>
@@ -2741,17 +2756,17 @@
       <c r="F60"/>
       <c r="G60"/>
       <c r="H60" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="8"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>66</v>
+        <v>217</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2761,64 +2776,59 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D62" s="5"/>
+      <c r="A62" t="s">
+        <v>50</v>
+      </c>
       <c r="H62" s="5" t="s">
-        <v>75</v>
+        <v>203</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>51</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
+      <c r="D63" s="5"/>
+      <c r="H63" s="5"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D64" s="5"/>
-      <c r="H64" s="5"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A64" t="s">
         <v>38</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B64" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="5"/>
-      <c r="E65" t="s">
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64" s="5">
+        <f t="shared" ref="D64" si="1">$C$1*C64</f>
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
         <v>39</v>
       </c>
-      <c r="G65" t="s">
-        <v>41</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="G64" t="s">
         <v>40</v>
       </c>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H64" t="s">
+        <v>221</v>
+      </c>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2847,7 +2857,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1">
@@ -2863,7 +2873,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>5</v>
@@ -2901,10 +2911,10 @@
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -2914,12 +2924,12 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5"/>
       <c r="H5" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -2927,17 +2937,17 @@
     <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6"/>
       <c r="H6" s="5" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -2945,17 +2955,17 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D7" s="5"/>
       <c r="H7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2965,14 +2975,14 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9">
@@ -2996,10 +3006,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -3012,7 +3022,7 @@
         <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G10" t="s">
         <v>27</v>
@@ -3022,44 +3032,44 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="5">
         <f>$C$1*C11</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
         <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G11" t="s">
         <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="5">
         <f t="shared" ref="D12" si="0">$C$1*C12</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
         <v>31</v>
@@ -3075,10 +3085,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -3088,11 +3098,11 @@
         <v>3</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -3379,7 +3389,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3AB4C3-BCB0-4671-B852-9DDB2E84EA55}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -3395,7 +3405,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1">
@@ -3411,7 +3421,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>5</v>
@@ -3437,10 +3447,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -3453,7 +3463,7 @@
         <v>34</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>15</v>
@@ -3464,23 +3474,23 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="5">
         <f t="shared" ref="D5" si="0">$C$1*C5</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
@@ -3497,7 +3507,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D7" s="5"/>
       <c r="I7" s="1"/>
@@ -3508,7 +3518,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -3518,7 +3528,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" t="s">
@@ -3530,10 +3540,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -3556,43 +3566,41 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>227</v>
+      </c>
       <c r="D10" s="5"/>
+      <c r="E10" t="s">
+        <v>223</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>216</v>
-      </c>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>217</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5">
-        <f t="shared" ref="D12" si="2">$C$1*C12</f>
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" t="s">
-        <v>218</v>
-      </c>
+      <c r="A12" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="D13" s="5"/>
+      <c r="E13" t="s">
+        <v>223</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="H13" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="5"/>
@@ -3605,8 +3613,6 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D17" s="5"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D18" s="5"/>
@@ -3634,19 +3640,18 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
       <c r="D23" s="5"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="12"/>
+      <c r="B24" s="2"/>
       <c r="D24" s="5"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
+      <c r="B25" s="12"/>
       <c r="D25" s="5"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -3654,7 +3659,8 @@
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="D26" s="5"/>
-      <c r="F26" s="3"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
@@ -3664,14 +3670,11 @@
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="D28" s="5"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="D29" s="5"/>
-      <c r="F29" s="3"/>
-      <c r="H29" s="5"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
@@ -3684,49 +3687,51 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
       <c r="D31" s="5"/>
+      <c r="F31" s="3"/>
       <c r="H31" s="5"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="9"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
+      <c r="B33" s="9"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="6"/>
       <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+      <c r="F34" s="6"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
       <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F36" s="6"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="8"/>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
     </row>
     <row r="37" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F37" s="6"/>
@@ -3741,7 +3746,6 @@
       <c r="J38" s="8"/>
     </row>
     <row r="39" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39"/>
       <c r="F39" s="6"/>
       <c r="H39" s="10"/>
       <c r="I39" s="7"/>
@@ -3755,6 +3759,8 @@
       <c r="J40" s="8"/>
     </row>
     <row r="41" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41"/>
+      <c r="F41" s="6"/>
       <c r="H41" s="10"/>
       <c r="I41" s="7"/>
       <c r="J41" s="8"/>
@@ -3770,8 +3776,6 @@
       <c r="J43" s="8"/>
     </row>
     <row r="44" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="9"/>
-      <c r="F44" s="6"/>
       <c r="H44" s="10"/>
       <c r="I44" s="7"/>
       <c r="J44" s="8"/>
@@ -3791,11 +3795,9 @@
       <c r="J46" s="8"/>
     </row>
     <row r="47" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
+      <c r="B47" s="9"/>
+      <c r="F47" s="6"/>
+      <c r="H47" s="10"/>
       <c r="I47" s="7"/>
       <c r="J47" s="8"/>
     </row>
@@ -3808,38 +3810,47 @@
       <c r="I48" s="7"/>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="11"/>
-      <c r="D49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+    <row r="49" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="8"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="13"/>
+      <c r="B50" s="11"/>
       <c r="D50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="13"/>
+      <c r="D51" s="5"/>
+      <c r="H51" s="5"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D52" s="5"/>
-      <c r="H52" s="5"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D53" s="5"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
+      <c r="H53" s="5"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="1"/>
+      <c r="D54" s="5"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3852,21 +3863,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395CB06B-4E35-4D83-939D-902BBC6C7ADF}">
-  <dimension ref="A2:B15"/>
+  <dimension ref="A2:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="91.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3875,68 +3887,92 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s">
-        <v>184</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>227</v>
+      </c>
+      <c r="B20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B21" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/doc/n64adv2_BOM.xlsx
+++ b/doc/n64adv2_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Peter\Documents\Workspaces\GitHub\n64rgb_project\n64adv2_pcb\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBCF5DD-8951-4683-B7CF-CC9124203003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C53A2C7-8B92-4D01-BECB-37B79552F51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1577,7 +1577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -3865,7 +3865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395CB06B-4E35-4D83-939D-902BBC6C7ADF}">
   <dimension ref="A2:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/doc/n64adv2_BOM.xlsx
+++ b/doc/n64adv2_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Peter\Documents\Workspaces\GitHub\n64rgb_project\n64adv2_pcb\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C53A2C7-8B92-4D01-BECB-37B79552F51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0565ED-935C-4E27-AFE0-44B386A2D0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9645" yWindow="2820" windowWidth="25005" windowHeight="13980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -686,9 +686,6 @@
     <t>Thx to ikari_01 (creator sd2snes / fxpak)</t>
   </si>
   <si>
-    <t>Set both to 2.5V in current setup! (shorted since N64Adv2_20220729 anyway)</t>
-  </si>
-  <si>
     <t>HDMI Connector 19pin with SMD mounted shield</t>
   </si>
   <si>
@@ -732,6 +729,9 @@
   </si>
   <si>
     <t>Feedback signal from N64Adv2 for VI-DeBlur setting</t>
+  </si>
+  <si>
+    <t>Set both banks to 2.5V in current setup! (shorted since N64Adv2_20220729 anyway)</t>
   </si>
 </sst>
 </file>
@@ -1577,7 +1577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -1672,7 +1672,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -2766,7 +2766,7 @@
         <v>55</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2776,7 +2776,7 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>56</v>
@@ -2819,7 +2819,7 @@
         <v>40</v>
       </c>
       <c r="H64" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -2936,26 +2936,25 @@
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" t="s">
-        <v>213</v>
-      </c>
-      <c r="F6" s="5"/>
       <c r="G6"/>
-      <c r="H6" s="5" t="s">
-        <v>214</v>
+      <c r="H6" t="s">
+        <v>134</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="H7" t="s">
-        <v>134</v>
+      <c r="E7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -3032,7 +3031,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11">
@@ -3059,7 +3058,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>115</v>
@@ -3474,7 +3473,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>205</v>
@@ -3567,14 +3566,14 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -3590,16 +3589,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B13" s="2"/>
       <c r="D13" s="5"/>
       <c r="E13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F13" s="3"/>
       <c r="H13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3865,7 +3864,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395CB06B-4E35-4D83-939D-902BBC6C7ADF}">
   <dimension ref="A2:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3895,7 +3896,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3953,7 +3954,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>162</v>
@@ -3961,18 +3962,18 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/doc/n64adv2_BOM.xlsx
+++ b/doc/n64adv2_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Peter\Documents\Workspaces\GitHub\n64rgb_project\n64adv2_pcb\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0565ED-935C-4E27-AFE0-44B386A2D0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DEA19C-1924-47E3-82FC-0DB5DDB76897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9645" yWindow="2820" windowWidth="25005" windowHeight="13980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -164,9 +164,6 @@
     <t>3,0mm x 4,5mm pad</t>
   </si>
   <si>
-    <t xml:space="preserve">BK32164M121-T </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ferrite Beads MULTILYR CHP </t>
   </si>
   <si>
@@ -314,9 +311,6 @@
     <t>U12</t>
   </si>
   <si>
-    <t>7A-27.000MAAJ-T</t>
-  </si>
-  <si>
     <t>27MHz crystal</t>
   </si>
   <si>
@@ -732,6 +726,12 @@
   </si>
   <si>
     <t>Set both banks to 2.5V in current setup! (shorted since N64Adv2_20220729 anyway)</t>
+  </si>
+  <si>
+    <t>445I23D27M00000</t>
+  </si>
+  <si>
+    <t>BLA31AG121SN4D</t>
   </si>
 </sst>
 </file>
@@ -1230,28 +1230,22 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43" quotePrefix="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1577,7 +1571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -1590,118 +1584,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="14"/>
+      <c r="A1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="9"/>
       <c r="C1">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4">
         <f>$C$1*C4</f>
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="5"/>
+        <v>68</v>
+      </c>
+      <c r="F4"/>
       <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="H4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
       <c r="E5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="5"/>
+        <v>70</v>
+      </c>
+      <c r="F5"/>
       <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="H5" t="s">
+        <v>217</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6">
         <f t="shared" ref="D6:D61" si="0">$C$1*C6</f>
         <v>3</v>
       </c>
       <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
         <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1711,23 +1705,23 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1736,21 +1730,21 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>86</v>
+      <c r="B8" t="s">
+        <v>85</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8">
         <f>$C$1*C8</f>
         <v>3</v>
       </c>
       <c r="E8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
         <v>84</v>
-      </c>
-      <c r="G8" t="s">
-        <v>85</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1759,18 +1753,18 @@
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>77</v>
+      <c r="B9" t="s">
+        <v>76</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
         <v>20</v>
@@ -1782,32 +1776,31 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D10" s="5"/>
+      <c r="B10" t="s">
+        <v>178</v>
+      </c>
       <c r="H10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s">
         <v>20</v>
@@ -1819,64 +1812,61 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D12" s="5"/>
+      <c r="B12" t="s">
+        <v>179</v>
+      </c>
       <c r="H12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
+      </c>
+      <c r="B13" t="s">
+        <v>124</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s">
         <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="D14" s="5"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" t="s">
         <v>87</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
@@ -1886,37 +1876,36 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>127</v>
+        <v>88</v>
+      </c>
+      <c r="B16" t="s">
+        <v>125</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G16" t="s">
         <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="5"/>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
       <c r="E17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G17" t="s">
         <v>19</v>
@@ -1926,20 +1915,20 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s">
         <v>19</v>
@@ -1947,55 +1936,49 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D20" s="5"/>
-    </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>229</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D22" s="5"/>
+        <v>91</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -2003,7 +1986,7 @@
       <c r="C23">
         <v>14</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
@@ -2013,21 +1996,18 @@
       <c r="G23" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -2045,15 +2025,15 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C26">
         <v>9</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -2071,15 +2051,15 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C27">
         <v>8</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -2097,15 +2077,15 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C28">
         <v>49</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28">
         <f t="shared" si="0"/>
         <v>147</v>
       </c>
@@ -2123,15 +2103,15 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -2148,21 +2128,20 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D30" s="5"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>116</v>
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>114</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -2170,7 +2149,7 @@
         <v>31</v>
       </c>
       <c r="F31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G31" t="s">
         <v>27</v>
@@ -2180,15 +2159,15 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>115</v>
+        <v>92</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="C32">
         <v>3</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -2206,15 +2185,15 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>148</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>117</v>
+        <v>146</v>
+      </c>
+      <c r="B33" t="s">
+        <v>115</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2222,36 +2201,36 @@
         <v>31</v>
       </c>
       <c r="F33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G33" t="s">
         <v>27</v>
       </c>
       <c r="H33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>118</v>
+        <v>93</v>
+      </c>
+      <c r="B34" t="s">
+        <v>116</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E34" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>57</v>
+      <c r="F34" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="G34" t="s">
         <v>27</v>
@@ -2259,42 +2238,42 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>149</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>119</v>
+        <v>147</v>
+      </c>
+      <c r="B35" t="s">
+        <v>117</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E35" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>98</v>
+      <c r="F35" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="G35" t="s">
         <v>27</v>
       </c>
       <c r="H35" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>120</v>
+        <v>148</v>
+      </c>
+      <c r="B36" t="s">
+        <v>118</v>
       </c>
       <c r="C36">
         <v>4</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -2302,7 +2281,7 @@
         <v>31</v>
       </c>
       <c r="F36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G36" t="s">
         <v>27</v>
@@ -2314,489 +2293,457 @@
       <c r="A37" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>121</v>
+      <c r="B37" t="s">
+        <v>119</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E37" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>58</v>
+      <c r="F37" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="G37" t="s">
         <v>27</v>
       </c>
-      <c r="H37" s="5"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>197</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>122</v>
+        <v>195</v>
+      </c>
+      <c r="B38" t="s">
+        <v>120</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E38" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>51</v>
+      <c r="F38" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="G38" t="s">
         <v>27</v>
       </c>
-      <c r="H38" s="5"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>151</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="B39" t="s">
+        <v>150</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E39" t="s">
         <v>31</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>153</v>
+      <c r="F39" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="G39" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="5"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D40" s="5"/>
-      <c r="H40" s="5"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>41</v>
+        <v>51</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>230</v>
       </c>
       <c r="C41">
         <v>4</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="5"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>101</v>
-      </c>
-      <c r="B42" s="5" t="s">
         <v>99</v>
+      </c>
+      <c r="B42" t="s">
+        <v>97</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G42" s="5" t="s">
+      <c r="F42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>154</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>102</v>
+        <v>152</v>
+      </c>
+      <c r="B43" t="s">
+        <v>100</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" t="s">
         <v>34</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G43" s="5" t="s">
+      <c r="F43" t="s">
+        <v>101</v>
+      </c>
+      <c r="G43" t="s">
         <v>15</v>
       </c>
-      <c r="H43" s="5"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D44" s="5"/>
-      <c r="H44" s="5"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="5">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45">
         <v>1</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F45" s="6"/>
-      <c r="G45" s="5" t="s">
+      <c r="E45" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" t="s">
         <v>27</v>
       </c>
-      <c r="H45" s="10"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="8"/>
-    </row>
-    <row r="46" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="I45" s="4"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" t="s">
         <v>104</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" s="5">
+      <c r="C46">
         <v>1</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="5" t="s">
+      <c r="E46" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" t="s">
         <v>16</v>
       </c>
-      <c r="H46" s="10"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="8"/>
-    </row>
-    <row r="47" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="I46" s="4"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C47" s="5">
+      <c r="C47">
         <v>1</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F47" s="6"/>
-      <c r="G47" s="5" t="s">
+      <c r="E47" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" t="s">
         <v>16</v>
       </c>
-      <c r="H47" s="10"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="8"/>
-    </row>
-    <row r="48" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="F48" s="6"/>
-      <c r="G48" s="5" t="s">
+      <c r="I47" s="4"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" t="s">
+        <v>196</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" t="s">
         <v>16</v>
       </c>
-      <c r="H48" s="10"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="8"/>
-    </row>
-    <row r="49" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>60</v>
+      <c r="I48" s="4"/>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" s="5">
+        <v>61</v>
+      </c>
+      <c r="C49">
         <v>2</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" t="s">
+        <v>62</v>
+      </c>
+      <c r="I49" s="4"/>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H50" t="s">
+        <v>71</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>67</v>
       </c>
-      <c r="F49" s="6"/>
-      <c r="G49" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H49" s="10"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="8"/>
-    </row>
-    <row r="50" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>143</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="I50" s="7"/>
-      <c r="J50" s="8"/>
-    </row>
-    <row r="51" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="B51" t="s">
-        <v>144</v>
-      </c>
-      <c r="C51" s="5">
+        <v>142</v>
+      </c>
+      <c r="C51">
         <v>1</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="5" t="s">
+      <c r="E51" t="s">
+        <v>144</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" t="s">
+        <v>143</v>
+      </c>
+      <c r="I51" s="4"/>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I52" s="4"/>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" t="s">
         <v>145</v>
       </c>
-      <c r="H51" s="10"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="8"/>
-    </row>
-    <row r="52" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H52" s="10"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="8"/>
-    </row>
-    <row r="53" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C53" s="5">
+      <c r="C53">
         <v>2</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H53" s="10"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="8"/>
-    </row>
-    <row r="54" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H54" s="10"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="8"/>
-    </row>
-    <row r="55" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C55" s="5">
+      <c r="E53" t="s">
+        <v>109</v>
+      </c>
+      <c r="G53" t="s">
+        <v>110</v>
+      </c>
+      <c r="I53" s="4"/>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I54" s="4"/>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55">
         <v>1</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="F55" s="6"/>
-      <c r="H55" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="I55" s="7"/>
-      <c r="J55" s="8"/>
-    </row>
-    <row r="56" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56"/>
-      <c r="F56" s="6"/>
-      <c r="H56" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I56" s="7"/>
-      <c r="J56" s="8"/>
-    </row>
-    <row r="57" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="9"/>
-      <c r="F57" s="6"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="8"/>
-    </row>
-    <row r="58" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="C58" s="5">
+      <c r="E55" t="s">
+        <v>188</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="H55" t="s">
+        <v>189</v>
+      </c>
+      <c r="I55" s="4"/>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F56" s="2"/>
+      <c r="H56" t="s">
+        <v>129</v>
+      </c>
+      <c r="I56" s="4"/>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="6"/>
+      <c r="F57" s="2"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C58">
         <v>1</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58">
         <f>$C$1*C58</f>
         <v>3</v>
       </c>
-      <c r="F58" s="6"/>
-      <c r="H58" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="I58" s="7"/>
-      <c r="J58" s="8"/>
-    </row>
-    <row r="59" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F58" s="2"/>
+      <c r="H58" t="s">
+        <v>198</v>
+      </c>
+      <c r="I58" s="4"/>
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>35</v>
       </c>
-      <c r="C59"/>
       <c r="E59" t="s">
-        <v>202</v>
-      </c>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="I59" s="7"/>
-      <c r="J59" s="8"/>
-    </row>
-    <row r="60" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="E60"/>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="I60" s="7"/>
-      <c r="J60" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="H59" t="s">
+        <v>199</v>
+      </c>
+      <c r="I59" s="4"/>
+      <c r="J59" s="5"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H60" t="s">
+        <v>130</v>
+      </c>
+      <c r="I60" s="4"/>
+      <c r="J60" s="5"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>55</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>216</v>
+        <v>54</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>214</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>215</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>56</v>
+        <v>213</v>
+      </c>
+      <c r="H61" t="s">
+        <v>55</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>50</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>203</v>
+        <v>49</v>
+      </c>
+      <c r="H62" t="s">
+        <v>201</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D63" s="5"/>
-      <c r="H63" s="5"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -2808,7 +2755,7 @@
       <c r="C64">
         <v>0</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64">
         <f t="shared" ref="D64" si="1">$C$1*C64</f>
         <v>0</v>
       </c>
@@ -2819,7 +2766,7 @@
         <v>40</v>
       </c>
       <c r="H64" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -2856,138 +2803,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="14"/>
+      <c r="A1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="9"/>
       <c r="C1">
         <f>Main!C1</f>
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
       <c r="E4"/>
-      <c r="F4" s="5"/>
+      <c r="F4"/>
       <c r="G4"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5">
         <f>$C$1*C5</f>
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" s="5"/>
+        <v>134</v>
+      </c>
+      <c r="F5"/>
       <c r="G5"/>
-      <c r="H5" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="H5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+    </row>
+    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6"/>
       <c r="G6"/>
       <c r="H6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+        <v>132</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" t="s">
         <v>212</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="H7" s="5" t="s">
-        <v>214</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8">
         <f>$C$1*C8</f>
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>139</v>
+      </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9">
         <f>$C$1*C9</f>
         <v>3</v>
       </c>
@@ -3005,15 +2948,15 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>116</v>
+        <v>138</v>
+      </c>
+      <c r="B10" t="s">
+        <v>114</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10">
         <f>$C$1*C10</f>
         <v>3</v>
       </c>
@@ -3021,7 +2964,7 @@
         <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" t="s">
         <v>27</v>
@@ -3031,13 +2974,12 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>218</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>216</v>
+      </c>
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11">
         <f>$C$1*C11</f>
         <v>6</v>
       </c>
@@ -3045,28 +2987,28 @@
         <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G11" t="s">
         <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>217</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>115</v>
+        <v>215</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12">
         <f t="shared" ref="D12" si="0">$C$1*C12</f>
         <v>6</v>
       </c>
@@ -3083,278 +3025,184 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="A13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13">
         <f t="shared" ref="D13" si="1">$C$1*C13</f>
         <v>3</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
-        <v>112</v>
+      <c r="E13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" t="s">
+        <v>110</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="D14" s="5"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="D15" s="5"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D22" s="5"/>
-    </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D23" s="5"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D24" s="5"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D25" s="5"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D26" s="5"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D27" s="5"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D28" s="5"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="D29" s="5"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="12"/>
-      <c r="D30" s="5"/>
+      <c r="B30" s="6"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="D31" s="5"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="D32" s="5"/>
-      <c r="F32" s="3"/>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="D33" s="5"/>
-      <c r="F33" s="3"/>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="D34" s="5"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="D35" s="5"/>
-      <c r="F35" s="3"/>
-      <c r="H35" s="5"/>
+      <c r="F35" s="2"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="D36" s="5"/>
-      <c r="F36" s="3"/>
-      <c r="H36" s="5"/>
+      <c r="F36" s="2"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D37" s="5"/>
-      <c r="H37" s="5"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="9"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="F38" s="2"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="5"/>
+      <c r="F39" s="2"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D41" s="5"/>
-      <c r="H41" s="5"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F42" s="6"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="8"/>
-    </row>
-    <row r="43" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F43" s="6"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="8"/>
-    </row>
-    <row r="44" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F44" s="6"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="8"/>
-    </row>
-    <row r="45" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45"/>
-      <c r="F45" s="6"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="8"/>
-    </row>
-    <row r="46" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46"/>
-      <c r="F46" s="6"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="8"/>
-    </row>
-    <row r="47" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H47" s="10"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="8"/>
-    </row>
-    <row r="48" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H48" s="10"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="8"/>
-    </row>
-    <row r="49" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H49" s="10"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="8"/>
-    </row>
-    <row r="50" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="9"/>
-      <c r="F50" s="6"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="8"/>
-    </row>
-    <row r="51" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="9"/>
-      <c r="F51" s="6"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="8"/>
-    </row>
-    <row r="52" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="9"/>
-      <c r="F52" s="6"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="8"/>
-    </row>
-    <row r="53" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="8"/>
-    </row>
-    <row r="54" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="8"/>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F42" s="2"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F43" s="2"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F44" s="2"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F45" s="2"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F46" s="2"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I47" s="4"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I48" s="4"/>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I49" s="4"/>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="6"/>
+      <c r="F50" s="2"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="6"/>
+      <c r="F51" s="2"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="6"/>
+      <c r="F52" s="2"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I53" s="4"/>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I54" s="4"/>
+      <c r="J54" s="5"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="11"/>
-      <c r="D55" s="5"/>
-      <c r="H55" s="5"/>
+      <c r="B55" s="7"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="13"/>
-      <c r="D56" s="5"/>
-      <c r="H56" s="5"/>
+      <c r="B56" s="8"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
@@ -3362,12 +3210,7 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D58" s="5"/>
-      <c r="H58" s="5"/>
-    </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D59" s="5"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
@@ -3403,93 +3246,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="14"/>
+      <c r="A1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="9"/>
       <c r="C1">
         <f>Main!C1</f>
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>156</v>
+        <v>202</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4">
         <f>$C$1*C4</f>
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="10"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>205</v>
+        <v>219</v>
+      </c>
+      <c r="B5" t="s">
+        <v>203</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5">
         <f t="shared" ref="D5" si="0">$C$1*C5</f>
         <v>6</v>
       </c>
       <c r="E5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>206</v>
+      <c r="F5" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
@@ -3498,56 +3340,52 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="D6" s="5"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="2"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D7" s="5"/>
+      <c r="A7" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="B8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8">
         <f t="shared" ref="D8:D9" si="1">$C$1*C8</f>
         <v>3</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F8" s="6"/>
+      <c r="E8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="10"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>211</v>
+      <c r="A9" t="s">
+        <v>209</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -3560,275 +3398,187 @@
       <c r="G9" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="10"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D10" s="5"/>
+      <c r="A10" t="s">
+        <v>224</v>
+      </c>
       <c r="E10" t="s">
+        <v>220</v>
+      </c>
+      <c r="H10" t="s">
         <v>222</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>224</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="5"/>
-    </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D12" s="5"/>
+      <c r="A12" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>226</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="D13" s="5"/>
+        <v>224</v>
+      </c>
       <c r="E13" t="s">
-        <v>222</v>
-      </c>
-      <c r="F13" s="3"/>
+        <v>220</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="H13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D17" s="5"/>
+        <v>221</v>
+      </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D18" s="5"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D19" s="5"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D20" s="5"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D21" s="5"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D22" s="5"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D23" s="5"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="D24" s="5"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="12"/>
-      <c r="D25" s="5"/>
+      <c r="B25" s="6"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="D26" s="5"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="D27" s="5"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="D28" s="5"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="D29" s="5"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="D30" s="5"/>
-      <c r="F30" s="3"/>
-      <c r="H30" s="5"/>
+      <c r="F30" s="2"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="D31" s="5"/>
-      <c r="F31" s="3"/>
-      <c r="H31" s="5"/>
+      <c r="F31" s="2"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D32" s="5"/>
-      <c r="H32" s="5"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="9"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="F33" s="2"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="5"/>
+      <c r="F34" s="2"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D36" s="5"/>
-      <c r="H36" s="5"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F37" s="6"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="8"/>
-    </row>
-    <row r="38" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F38" s="6"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="8"/>
-    </row>
-    <row r="39" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F39" s="6"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="8"/>
-    </row>
-    <row r="40" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40"/>
-      <c r="F40" s="6"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="8"/>
-    </row>
-    <row r="41" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41"/>
-      <c r="F41" s="6"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="8"/>
-    </row>
-    <row r="42" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H42" s="10"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="8"/>
-    </row>
-    <row r="43" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H43" s="10"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="8"/>
-    </row>
-    <row r="44" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H44" s="10"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="8"/>
-    </row>
-    <row r="45" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="9"/>
-      <c r="F45" s="6"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="8"/>
-    </row>
-    <row r="46" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="9"/>
-      <c r="F46" s="6"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="8"/>
-    </row>
-    <row r="47" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="9"/>
-      <c r="F47" s="6"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="8"/>
-    </row>
-    <row r="48" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="8"/>
-    </row>
-    <row r="49" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="8"/>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F37" s="2"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F38" s="2"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F39" s="2"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F40" s="2"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F41" s="2"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I42" s="4"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I43" s="4"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I44" s="4"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="6"/>
+      <c r="F45" s="2"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="6"/>
+      <c r="F46" s="2"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="6"/>
+      <c r="F47" s="2"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I48" s="4"/>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I49" s="4"/>
+      <c r="J49" s="5"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="11"/>
-      <c r="D50" s="5"/>
-      <c r="H50" s="5"/>
+      <c r="B50" s="7"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="13"/>
-      <c r="D51" s="5"/>
-      <c r="H51" s="5"/>
+      <c r="B51" s="8"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
@@ -3836,12 +3586,7 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D53" s="5"/>
-      <c r="H53" s="5"/>
-    </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D54" s="5"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
@@ -3864,9 +3609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395CB06B-4E35-4D83-939D-902BBC6C7ADF}">
   <dimension ref="A2:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3875,105 +3618,105 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>162</v>
+      <c r="A2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>162</v>
+      <c r="A11" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>162</v>
+      <c r="A18" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" t="s">
         <v>226</v>
-      </c>
-      <c r="B20" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/doc/n64adv2_BOM.xlsx
+++ b/doc/n64adv2_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Peter\Documents\Workspaces\GitHub\n64rgb_project\n64adv2_pcb\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DEA19C-1924-47E3-82FC-0DB5DDB76897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AB7941-ECB3-4E2D-91F1-2FA04CE7A26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="203">
   <si>
     <t>Designator</t>
   </si>
@@ -152,18 +152,6 @@
     <t>1uF / 6.3V</t>
   </si>
   <si>
-    <t xml:space="preserve">S1761-42R </t>
-  </si>
-  <si>
-    <t>GND Finger</t>
-  </si>
-  <si>
-    <t>GND shield finger</t>
-  </si>
-  <si>
-    <t>3,0mm x 4,5mm pad</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ferrite Beads MULTILYR CHP </t>
   </si>
   <si>
@@ -269,12 +257,6 @@
     <t>SDRAM Speicher-IC 128 Mb (8 M x 16) Parallel</t>
   </si>
   <si>
-    <t>ASE-50.000MHZ-LC-T</t>
-  </si>
-  <si>
-    <t>ASE-24.576MHZ-LC-T</t>
-  </si>
-  <si>
     <t>OSC 24.576MHz for audio</t>
   </si>
   <si>
@@ -326,12 +308,6 @@
     <t>1k0</t>
   </si>
   <si>
-    <t>3k09</t>
-  </si>
-  <si>
-    <t>1k58</t>
-  </si>
-  <si>
     <t>CAY16-103J4LF</t>
   </si>
   <si>
@@ -386,15 +362,9 @@
     <t>RC0603FR-071ML</t>
   </si>
   <si>
-    <t>RC0603FR-073K09L</t>
-  </si>
-  <si>
     <t>RC0603FR-072KL</t>
   </si>
   <si>
-    <t>RC0603FR-071K58L</t>
-  </si>
-  <si>
     <t>RC0603FR-071KL</t>
   </si>
   <si>
@@ -461,9 +431,6 @@
     <t>C4</t>
   </si>
   <si>
-    <t>FB1,FB2,FB3,FB4,FB12,FB13,FB21,FB22,FB23,FB24,FB31,FB71,FB91,FB92</t>
-  </si>
-  <si>
     <t>SZESD7104MUTAG</t>
   </si>
   <si>
@@ -479,15 +446,6 @@
     <t>ZXTN08400BFFTA</t>
   </si>
   <si>
-    <t>R41</t>
-  </si>
-  <si>
-    <t>R42</t>
-  </si>
-  <si>
-    <t>R11,R15,R17,R31</t>
-  </si>
-  <si>
     <t>R14</t>
   </si>
   <si>
@@ -515,45 +473,12 @@
     <t>C51,C61</t>
   </si>
   <si>
-    <t>C1.11,C1.12,C1.13,C1.14,C1.15,C1.16,C1.17,C1.18,C1.19,C1.20,C1.21,C1.22,C1.31,C1.32,C1.33,C1.34,C1.35,C1.36,C1.37,C1.38,C1.39,C1.40,C1.51,C1.52,C1.53,C1.54,C1.55,C3,C31,C32,C33,C34,C35,C36,C37,C71,C91,C92,C93,C94,C211,C212,C213,C214,C221,C222,C223,C231,C241</t>
-  </si>
-  <si>
-    <t>Jumper</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>SJ31</t>
-  </si>
-  <si>
-    <t>SCL</t>
-  </si>
-  <si>
-    <t>SDA</t>
-  </si>
-  <si>
     <t>SPDIF</t>
   </si>
   <si>
-    <t>SJ5,SJ6</t>
-  </si>
-  <si>
-    <t>Connects 5V/3.3V from Onboard USB Blaster with mainboard power rails</t>
-  </si>
-  <si>
-    <t>Set Jumper only for programming off the N64 (untested), never set jumper when board is installed!</t>
-  </si>
-  <si>
-    <t>Only set for 16M16 memory usage (U3) - needs firmware adaptation if needed</t>
-  </si>
-  <si>
-    <t>SJ1-SJ4</t>
-  </si>
-  <si>
-    <t>Labeled as VCCIO jumper for bank 6 and bank 7.</t>
-  </si>
-  <si>
     <t>10M16SAE144</t>
   </si>
   <si>
@@ -569,24 +494,9 @@
     <t>Testpads</t>
   </si>
   <si>
-    <t>I2C</t>
-  </si>
-  <si>
     <t>SPDIF output, e.g. for optical audio link</t>
   </si>
   <si>
-    <t>DSC1001CI1-050.0000T</t>
-  </si>
-  <si>
-    <t>ASEM1-24.576MHZ-LC-T</t>
-  </si>
-  <si>
-    <t>Alternative Part U6</t>
-  </si>
-  <si>
-    <t>Alternative Part U5</t>
-  </si>
-  <si>
     <t>‎GRT21BR60J476ME13L‎</t>
   </si>
   <si>
@@ -611,12 +521,6 @@
     <t>30 pin 0.5mm flat cable connector, reverse v5 pinout, 5V &amp; 3.3V power rail, GND and data</t>
   </si>
   <si>
-    <t>alternative values possible, ratio R41/R42 = 2 needed</t>
-  </si>
-  <si>
-    <t>unpopulated, alternative values possible, ratio R41/R42 = 2 needed</t>
-  </si>
-  <si>
     <t>LDO 2.5V, 300mA</t>
   </si>
   <si>
@@ -653,15 +557,6 @@
     <t>RC0603FR-0747RL</t>
   </si>
   <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>With Schmitt-Trigger Buffer for Controller Line</t>
-  </si>
-  <si>
-    <t>Without Schmitt-Trigger Buffer for Controller Line</t>
-  </si>
-  <si>
     <t>Schmitt-Trigger Buffer</t>
   </si>
   <si>
@@ -695,43 +590,64 @@
     <t>For developer or as user alternative (more FPGA resources)</t>
   </si>
   <si>
-    <t>optional (must not be used if no-cut mod is used)</t>
-  </si>
-  <si>
     <t>R1,R2</t>
   </si>
   <si>
-    <t>Solder Jumper</t>
-  </si>
-  <si>
-    <t>Close this jumper</t>
-  </si>
-  <si>
-    <t>Leave this jumper open</t>
-  </si>
-  <si>
     <t>J3</t>
   </si>
   <si>
-    <t>SJ1</t>
-  </si>
-  <si>
     <t>Jumper on Flex</t>
   </si>
   <si>
-    <t>Solder Jumper: Close if you do not use a Schmitt trigger buffer (U1, C1)</t>
-  </si>
-  <si>
     <t>Feedback signal from N64Adv2 for VI-DeBlur setting</t>
   </si>
   <si>
-    <t>Set both banks to 2.5V in current setup! (shorted since N64Adv2_20220729 anyway)</t>
-  </si>
-  <si>
     <t>445I23D27M00000</t>
   </si>
   <si>
     <t>BLA31AG121SN4D</t>
+  </si>
+  <si>
+    <t>Ctrl. (Backup)</t>
+  </si>
+  <si>
+    <t>Rst. (Backup)</t>
+  </si>
+  <si>
+    <t>Backup pad to route a wire from PIF to flex if trace end on flex is broken</t>
+  </si>
+  <si>
+    <t>VD0 - VD6, nVDSync, VDClk, A-LRClk, A-Sdata, A-SClk, Ctrl, nRst</t>
+  </si>
+  <si>
+    <t>Pads to connect the N64Adv2 mainboard without the flex cable</t>
+  </si>
+  <si>
+    <t>Usefull for debugging if N64Adv2 is not working after installation with flex</t>
+  </si>
+  <si>
+    <t>+3.3V, +5V, GND</t>
+  </si>
+  <si>
+    <t>Power connection (for SPDIF, testing, whatever)</t>
+  </si>
+  <si>
+    <t>ECS-3225MV-500-CN-TR</t>
+  </si>
+  <si>
+    <t>ECS-3225MVLC-245.7-CN-TR</t>
+  </si>
+  <si>
+    <t>FB1,FB2,FB11,FB12,FB13,FB21,FB22,FB23,FB24,FB31,FB41,FB42,FB56</t>
+  </si>
+  <si>
+    <t>C1.11,C1.12,C1.13,C1.14,C1.15,C1.16,C1.17,C1.18,C1.19,C1.20,C1.21,C1.22,C1.31,C1.32,C1.33,C1.34,C1.35,C1.36,C1.37,C1.38,C1.39,C1.40,C1.51,C1.52,C1.53,C1.54,C1.55,C3,C31,C32,C33,C34,C35,C36,C37,C41,C42,C43,C44,C211,C212,C213,C214,C221,C222,C223,C231,C241</t>
+  </si>
+  <si>
+    <t>R11,R15,R17,R31,R41</t>
+  </si>
+  <si>
+    <t>Onboard USB Blaster</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1146,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1245,7 +1161,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1569,7 +1484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -1585,7 +1500,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1">
@@ -1600,7 +1515,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
@@ -1629,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1639,14 +1554,14 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F4"/>
       <c r="G4" t="s">
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -1654,19 +1569,19 @@
     <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F5"/>
       <c r="G5" t="s">
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -1676,26 +1591,26 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D61" si="0">$C$1*C6</f>
+        <f t="shared" ref="D6:D56" si="0">$C$1*C6</f>
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1705,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1715,13 +1630,13 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1731,7 +1646,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1741,10 +1656,10 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1754,7 +1669,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1764,7 +1679,7 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s">
         <v>20</v>
@@ -1776,21 +1691,37 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>198</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>181</v>
+        <v>21</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1800,33 +1731,27 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>179</v>
-      </c>
-      <c r="H12" t="s">
-        <v>180</v>
-      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1836,37 +1761,46 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="G13" t="s">
         <v>19</v>
       </c>
-      <c r="H13" t="s">
-        <v>82</v>
-      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>161</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" t="s">
+        <v>116</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>86</v>
-      </c>
       <c r="B15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
@@ -1876,10 +1810,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1889,57 +1823,39 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>193</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
         <v>19</v>
       </c>
-      <c r="H16" t="s">
-        <v>126</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>117</v>
+      </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>42</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>194</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1949,125 +1865,156 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s">
-        <v>229</v>
+        <v>29</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
       </c>
       <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="B25" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E25" t="s">
         <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>200</v>
+      </c>
+      <c r="B26" t="s">
         <v>155</v>
       </c>
-      <c r="B26" t="s">
-        <v>184</v>
-      </c>
       <c r="C26">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s">
         <v>27</v>
-      </c>
-      <c r="E26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" t="s">
-        <v>16</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" t="s">
         <v>156</v>
       </c>
-      <c r="B27" t="s">
-        <v>183</v>
-      </c>
       <c r="C27">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G27" t="s">
         <v>27</v>
@@ -2076,50 +2023,28 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>158</v>
-      </c>
-      <c r="B28" t="s">
-        <v>185</v>
-      </c>
-      <c r="C28">
-        <v>49</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>147</v>
-      </c>
-      <c r="E28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" t="s">
-        <v>27</v>
-      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="G29" t="s">
         <v>27</v>
@@ -2128,54 +2053,74 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E31" t="s">
         <v>31</v>
       </c>
-      <c r="F31" t="s">
-        <v>65</v>
+      <c r="F31" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="G31" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>113</v>
+        <v>201</v>
+      </c>
+      <c r="B32" t="s">
+        <v>108</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E32" t="s">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s">
         <v>27</v>
@@ -2185,39 +2130,36 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E33" t="s">
         <v>31</v>
       </c>
-      <c r="F33" t="s">
-        <v>95</v>
+      <c r="F33" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="G33" t="s">
         <v>27</v>
       </c>
-      <c r="H33" t="s">
-        <v>191</v>
-      </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>163</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -2230,18 +2172,20 @@
         <v>31</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G34" t="s">
         <v>27</v>
       </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2254,73 +2198,50 @@
         <v>31</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="G35" t="s">
         <v>27</v>
       </c>
-      <c r="H35" t="s">
-        <v>190</v>
-      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>148</v>
-      </c>
-      <c r="B36" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36">
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37">
         <v>4</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E36" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" t="s">
-        <v>94</v>
-      </c>
-      <c r="G36" t="s">
-        <v>27</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" t="s">
-        <v>119</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -2330,23 +2251,21 @@
         <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G38" t="s">
-        <v>27</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B39" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2356,13 +2275,13 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>151</v>
+        <v>34</v>
+      </c>
+      <c r="F39" t="s">
+        <v>93</v>
       </c>
       <c r="G39" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -2373,60 +2292,58 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>230</v>
+        <v>54</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>41</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="F41" s="2"/>
       <c r="G41" t="s">
-        <v>15</v>
-      </c>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>34</v>
-      </c>
-      <c r="F42" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="F42" s="2"/>
       <c r="G42" t="s">
-        <v>15</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2436,75 +2353,76 @@
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F43" t="s">
-        <v>101</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="F43" s="2"/>
       <c r="G43" t="s">
-        <v>15</v>
-      </c>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" t="s">
+        <v>164</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="5"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="5"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>102</v>
-      </c>
       <c r="B46" t="s">
-        <v>104</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>130</v>
       </c>
       <c r="E46" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" t="s">
-        <v>16</v>
+        <v>58</v>
+      </c>
+      <c r="H46" t="s">
+        <v>67</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="5"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2514,35 +2432,25 @@
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="5"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>104</v>
-      </c>
-      <c r="E48" t="s">
-        <v>196</v>
-      </c>
-      <c r="F48" s="2"/>
-      <c r="G48" t="s">
-        <v>16</v>
-      </c>
       <c r="I48" s="4"/>
       <c r="J48" s="5"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -2552,38 +2460,24 @@
         <v>6</v>
       </c>
       <c r="E49" t="s">
-        <v>66</v>
-      </c>
-      <c r="F49" s="2"/>
+        <v>101</v>
+      </c>
       <c r="G49" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="5"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>141</v>
-      </c>
-      <c r="E50" t="s">
-        <v>66</v>
-      </c>
-      <c r="F50" s="2"/>
-      <c r="G50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H50" t="s">
-        <v>71</v>
-      </c>
       <c r="I50" s="4"/>
       <c r="J50" s="5"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2593,189 +2487,105 @@
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F51" s="2"/>
-      <c r="G51" t="s">
-        <v>143</v>
+      <c r="H51" t="s">
+        <v>159</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="5"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F52" s="2"/>
+      <c r="H52" t="s">
+        <v>119</v>
+      </c>
       <c r="I52" s="4"/>
       <c r="J52" s="5"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>108</v>
-      </c>
-      <c r="B53" t="s">
-        <v>145</v>
+        <v>49</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E53" t="s">
-        <v>109</v>
-      </c>
-      <c r="G53" t="s">
-        <v>110</v>
+        <f>$C$1*C53</f>
+        <v>3</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="H53" t="s">
+        <v>166</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="5"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" t="s">
+        <v>168</v>
+      </c>
+      <c r="H54" t="s">
+        <v>167</v>
+      </c>
       <c r="I54" s="4"/>
       <c r="J54" s="5"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" t="s">
-        <v>187</v>
-      </c>
-      <c r="C55">
+      <c r="H55" t="s">
+        <v>120</v>
+      </c>
+      <c r="I55" s="4"/>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56">
         <v>1</v>
       </c>
-      <c r="D55">
+      <c r="D56">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E55" t="s">
-        <v>188</v>
-      </c>
-      <c r="F55" s="2"/>
-      <c r="H55" t="s">
-        <v>189</v>
-      </c>
-      <c r="I55" s="4"/>
-      <c r="J55" s="5"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F56" s="2"/>
+      <c r="E56" t="s">
+        <v>178</v>
+      </c>
       <c r="H56" t="s">
-        <v>129</v>
-      </c>
-      <c r="I56" s="4"/>
-      <c r="J56" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="6"/>
-      <c r="F57" s="2"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="5"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>53</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <f>$C$1*C58</f>
-        <v>3</v>
-      </c>
-      <c r="F58" s="2"/>
-      <c r="H58" t="s">
-        <v>198</v>
-      </c>
-      <c r="I58" s="4"/>
-      <c r="J58" s="5"/>
+      <c r="A57" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" t="s">
+        <v>202</v>
+      </c>
+      <c r="H57" t="s">
+        <v>169</v>
+      </c>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>35</v>
-      </c>
-      <c r="E59" t="s">
-        <v>200</v>
-      </c>
-      <c r="H59" t="s">
-        <v>199</v>
-      </c>
-      <c r="I59" s="4"/>
-      <c r="J59" s="5"/>
+      <c r="B59" s="1"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H60" t="s">
-        <v>130</v>
-      </c>
-      <c r="I60" s="4"/>
-      <c r="J60" s="5"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>54</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E61" t="s">
-        <v>213</v>
-      </c>
-      <c r="H61" t="s">
-        <v>55</v>
-      </c>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>49</v>
-      </c>
-      <c r="H62" t="s">
-        <v>201</v>
-      </c>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>38</v>
-      </c>
-      <c r="B64" t="s">
-        <v>37</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <f t="shared" ref="D64" si="1">$C$1*C64</f>
-        <v>0</v>
-      </c>
-      <c r="E64" t="s">
-        <v>39</v>
-      </c>
-      <c r="G64" t="s">
-        <v>40</v>
-      </c>
-      <c r="H64" t="s">
-        <v>218</v>
-      </c>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="1"/>
+      <c r="B60" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2788,7 +2598,450 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004AAC79-25A6-4906-AE7D-6BDBC0D3C19C}">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="59.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1">
+        <f>Main!C1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f>$C$1*C5</f>
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+    </row>
+    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="G6"/>
+      <c r="H6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" t="s">
+        <v>177</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <f>$C$1*C8</f>
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f>$C$1*C9</f>
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f>$C$1*C10</f>
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11" si="0">$C$1*C11</f>
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <f>$C$1*C12</f>
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>148</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13" si="1">$C$1*C13</f>
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F36" s="2"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F37" s="2"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+      <c r="F39" s="2"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F43" s="2"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F44" s="2"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F45" s="2"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F46" s="2"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F47" s="2"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I48" s="4"/>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I49" s="4"/>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I50" s="4"/>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="6"/>
+      <c r="F51" s="2"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="6"/>
+      <c r="F52" s="2"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="6"/>
+      <c r="F53" s="2"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I54" s="4"/>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I55" s="4"/>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="7"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="8"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3AB4C3-BCB0-4671-B852-9DDB2E84EA55}">
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -2804,7 +3057,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1">
@@ -2820,7 +3073,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
@@ -2845,100 +3098,114 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f>$C$1*C4</f>
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5" s="2"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="D5">
-        <f>$C$1*C5</f>
+      <c r="D6">
+        <f>$C$1*C6</f>
         <v>3</v>
       </c>
-      <c r="E5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I5"/>
-      <c r="J5"/>
-    </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-      <c r="G6"/>
-      <c r="H6" t="s">
-        <v>132</v>
-      </c>
-      <c r="I6"/>
-      <c r="J6"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H7" t="s">
-        <v>212</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" t="s">
-        <v>136</v>
+        <v>170</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <f>$C$1*C8</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>34</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9" si="0">$C$1*C9</f>
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <f>$C$1*C9</f>
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
       </c>
       <c r="G9" t="s">
         <v>27</v>
@@ -2947,103 +3214,11 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <f>$C$1*C10</f>
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
+      <c r="F10" s="2"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <f>$C$1*C11</f>
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" t="s">
-        <v>173</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>215</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ref="D12" si="0">$C$1*C12</f>
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>174</v>
-      </c>
-      <c r="B13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <f t="shared" ref="D13" si="1">$C$1*C13</f>
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" t="s">
-        <v>110</v>
-      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
@@ -3055,19 +3230,48 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F22" s="2"/>
+    </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F25" s="2"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F26" s="2"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
@@ -3076,15 +3280,15 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+      <c r="F28" s="2"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
@@ -3094,451 +3298,60 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F32" s="2"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="5"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F33" s="2"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="5"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="F34" s="2"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="5"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F35" s="2"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="5"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F36" s="2"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="5"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="5"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
-      <c r="F38" s="2"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="5"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F39" s="2"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="5"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="B40" s="6"/>
+      <c r="F40" s="2"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="5"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="B41" s="6"/>
+      <c r="F41" s="2"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="5"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="6"/>
       <c r="F42" s="2"/>
       <c r="I42" s="4"/>
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F43" s="2"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F44" s="2"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F45" s="2"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="5"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F46" s="2"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="5"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I47" s="4"/>
-      <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I48" s="4"/>
-      <c r="J48" s="5"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I49" s="4"/>
-      <c r="J49" s="5"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="6"/>
-      <c r="F50" s="2"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="5"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="6"/>
-      <c r="F51" s="2"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="6"/>
-      <c r="F52" s="2"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="5"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I53" s="4"/>
-      <c r="J53" s="5"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I54" s="4"/>
-      <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="7"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="8"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3AB4C3-BCB0-4671-B852-9DDB2E84EA55}">
-  <dimension ref="A1:J56"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
-    <col min="8" max="8" width="59.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1">
-        <f>Main!C1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <f>$C$1*C4</f>
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ref="D5" si="0">$C$1*C5</f>
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F6" s="2"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ref="D8:D9" si="1">$C$1*C8</f>
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>207</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>209</v>
-      </c>
-      <c r="B9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>224</v>
-      </c>
-      <c r="E10" t="s">
-        <v>220</v>
-      </c>
-      <c r="H10" t="s">
-        <v>222</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>224</v>
-      </c>
-      <c r="E13" t="s">
-        <v>220</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="H13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F30" s="2"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F31" s="2"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
-      <c r="F33" s="2"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F37" s="2"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F38" s="2"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F39" s="2"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F40" s="2"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F41" s="2"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I42" s="4"/>
-      <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I43" s="4"/>
       <c r="J43" s="5"/>
     </row>
@@ -3547,54 +3360,28 @@
       <c r="J44" s="5"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="6"/>
-      <c r="F45" s="2"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="5"/>
+      <c r="B45" s="7"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="6"/>
-      <c r="F46" s="2"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="5"/>
+      <c r="B46" s="8"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="6"/>
-      <c r="F47" s="2"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I48" s="4"/>
-      <c r="J48" s="5"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I49" s="4"/>
-      <c r="J49" s="5"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="7"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="B50" s="1"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="8"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="1"/>
+      <c r="B51" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3607,7 +3394,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395CB06B-4E35-4D83-939D-902BBC6C7ADF}">
-  <dimension ref="A2:B21"/>
+  <dimension ref="A2:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3619,104 +3406,71 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+        <v>144</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="B5" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B8" t="s">
-        <v>168</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>160</v>
+      <c r="A11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>163</v>
-      </c>
-      <c r="B14" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>164</v>
-      </c>
-      <c r="B15" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>224</v>
-      </c>
-      <c r="B20" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>223</v>
-      </c>
-      <c r="B21" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/doc/n64adv2_BOM.xlsx
+++ b/doc/n64adv2_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Peter\Documents\Workspaces\GitHub\n64rgb_project\n64adv2_pcb\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AB7941-ECB3-4E2D-91F1-2FA04CE7A26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1660AA05-B700-48F7-828C-BC6F0292669A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="198">
   <si>
     <t>Designator</t>
   </si>
@@ -266,12 +266,6 @@
     <t>U6</t>
   </si>
   <si>
-    <t>Buffer gate</t>
-  </si>
-  <si>
-    <t>Alternative: 74LVC1G34DBV</t>
-  </si>
-  <si>
     <t>Clock generator</t>
   </si>
   <si>
@@ -380,12 +374,6 @@
     <t>Aliexpress</t>
   </si>
   <si>
-    <t>U7</t>
-  </si>
-  <si>
-    <t>74LVC2G17DBV</t>
-  </si>
-  <si>
     <t>TLV70025DDCR</t>
   </si>
   <si>
@@ -552,9 +540,6 @@
   </si>
   <si>
     <t>RN1,RN2,RN3,RN4</t>
-  </si>
-  <si>
-    <t>RC0603FR-0747RL</t>
   </si>
   <si>
     <t>Schmitt-Trigger Buffer</t>
@@ -1484,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,7 +1485,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1">
@@ -1544,7 +1529,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1561,7 +1546,7 @@
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -1569,7 +1554,7 @@
     <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -1581,7 +1566,7 @@
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -1597,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D56" si="0">$C$1*C6</f>
+        <f t="shared" ref="D6:D55" si="0">$C$1*C6</f>
         <v>3</v>
       </c>
       <c r="E6" t="s">
@@ -1610,7 +1595,7 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1646,7 +1631,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1656,10 +1641,10 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1669,7 +1654,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1695,7 +1680,7 @@
         <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1717,32 +1702,29 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11">
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="E12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12" t="s">
         <v>19</v>
       </c>
-      <c r="H11" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
@@ -1751,7 +1733,7 @@
         <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1761,59 +1743,57 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G13" t="s">
         <v>19</v>
       </c>
+      <c r="H13" t="s">
+        <v>112</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>82</v>
-      </c>
       <c r="B14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14">
+        <v>79</v>
+      </c>
+      <c r="E14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15">
         <v>1</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E14" t="s">
-        <v>161</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" t="s">
-        <v>116</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>81</v>
-      </c>
       <c r="E15" t="s">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1823,479 +1803,482 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18">
         <v>1</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" t="s">
-        <v>187</v>
-      </c>
-      <c r="C19">
+      <c r="E18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>194</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25">
+        <v>48</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28">
         <v>1</v>
       </c>
-      <c r="D19">
+      <c r="D28">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>84</v>
       </c>
-      <c r="G19" t="s">
+      <c r="B29" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>199</v>
-      </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21">
-        <v>13</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="E21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>152</v>
-      </c>
-      <c r="C23">
+      <c r="B30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30">
         <v>2</v>
       </c>
-      <c r="D23">
+      <c r="D30">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>141</v>
-      </c>
-      <c r="B24" t="s">
-        <v>154</v>
-      </c>
-      <c r="C24">
-        <v>9</v>
-      </c>
-      <c r="D24">
+      <c r="E30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>196</v>
+      </c>
+      <c r="B31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
         <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" t="s">
         <v>27</v>
       </c>
-      <c r="E24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>142</v>
-      </c>
-      <c r="B25" t="s">
-        <v>153</v>
-      </c>
-      <c r="C25">
-        <v>8</v>
-      </c>
-      <c r="D25">
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="E25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" t="s">
         <v>27</v>
       </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>200</v>
-      </c>
-      <c r="B26" t="s">
-        <v>155</v>
-      </c>
-      <c r="C26">
-        <v>48</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>144</v>
-      </c>
-      <c r="E26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>143</v>
-      </c>
-      <c r="B27" t="s">
-        <v>156</v>
-      </c>
-      <c r="C27">
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33">
         <v>2</v>
       </c>
-      <c r="D27">
+      <c r="D33">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E27" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="E33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" t="s">
         <v>27</v>
       </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29">
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34">
         <v>1</v>
       </c>
-      <c r="D29">
+      <c r="D34">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E34" t="s">
         <v>31</v>
       </c>
-      <c r="F29" t="s">
-        <v>61</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="F34" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" t="s">
         <v>27</v>
       </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30">
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" t="s">
-        <v>27</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" t="s">
         <v>87</v>
       </c>
-      <c r="B31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31">
+      <c r="C37">
         <v>2</v>
       </c>
-      <c r="D31">
+      <c r="D37">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>201</v>
-      </c>
-      <c r="B32" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32">
-        <v>5</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
+      <c r="E37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37" t="s">
         <v>15</v>
       </c>
-      <c r="E32" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" t="s">
-        <v>88</v>
-      </c>
-      <c r="G32" t="s">
-        <v>27</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38">
         <v>1</v>
       </c>
-      <c r="D33">
+      <c r="D38">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G33" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>163</v>
-      </c>
-      <c r="B34" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" t="s">
-        <v>27</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>135</v>
-      </c>
-      <c r="B35" t="s">
-        <v>136</v>
-      </c>
-      <c r="C35">
+      <c r="E38" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" t="s">
+        <v>91</v>
+      </c>
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40">
         <v>1</v>
       </c>
-      <c r="D35">
+      <c r="D40">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E35" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="E40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" t="s">
         <v>27</v>
       </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" t="s">
-        <v>188</v>
-      </c>
-      <c r="C37">
-        <v>4</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E37" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>91</v>
-      </c>
-      <c r="B38" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E38" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>138</v>
-      </c>
-      <c r="B39" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E39" t="s">
-        <v>34</v>
-      </c>
-      <c r="F39" t="s">
-        <v>93</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2305,21 +2288,21 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2329,7 +2312,7 @@
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" t="s">
@@ -2339,21 +2322,11 @@
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>95</v>
-      </c>
       <c r="B43" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="E43" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" t="s">
@@ -2363,32 +2336,32 @@
       <c r="J43" s="5"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>57</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="E44" t="s">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="5"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>55</v>
-      </c>
       <c r="B45" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="E45" t="s">
         <v>62</v>
@@ -2397,195 +2370,181 @@
       <c r="G45" t="s">
         <v>58</v>
       </c>
+      <c r="H45" t="s">
+        <v>67</v>
+      </c>
       <c r="I45" s="4"/>
       <c r="J45" s="5"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" t="s">
-        <v>58</v>
-      </c>
-      <c r="H46" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="5"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47">
+      <c r="I47" s="4"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
+        <v>99</v>
+      </c>
+      <c r="G48" t="s">
+        <v>100</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I49" s="4"/>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50">
         <v>1</v>
       </c>
-      <c r="D47">
+      <c r="D50">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E47" t="s">
-        <v>133</v>
-      </c>
-      <c r="F47" s="2"/>
-      <c r="G47" t="s">
-        <v>132</v>
-      </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I48" s="4"/>
-      <c r="J48" s="5"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>100</v>
-      </c>
-      <c r="B49" t="s">
-        <v>134</v>
-      </c>
-      <c r="C49">
-        <v>2</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E49" t="s">
-        <v>101</v>
-      </c>
-      <c r="G49" t="s">
-        <v>102</v>
-      </c>
-      <c r="I49" s="4"/>
-      <c r="J49" s="5"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>154</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="H50" t="s">
+        <v>155</v>
+      </c>
       <c r="I50" s="4"/>
       <c r="J50" s="5"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" t="s">
-        <v>157</v>
-      </c>
-      <c r="C51">
+      <c r="F51" s="2"/>
+      <c r="H51" t="s">
+        <v>115</v>
+      </c>
+      <c r="I51" s="4"/>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52">
         <v>1</v>
       </c>
-      <c r="D51">
+      <c r="D52">
+        <f>$C$1*C52</f>
+        <v>3</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="H52" t="s">
+        <v>162</v>
+      </c>
+      <c r="I52" s="4"/>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" t="s">
+        <v>164</v>
+      </c>
+      <c r="H53" t="s">
+        <v>163</v>
+      </c>
+      <c r="I53" s="4"/>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>116</v>
+      </c>
+      <c r="I54" s="4"/>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E51" t="s">
-        <v>158</v>
-      </c>
-      <c r="F51" s="2"/>
-      <c r="H51" t="s">
-        <v>159</v>
-      </c>
-      <c r="I51" s="4"/>
-      <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F52" s="2"/>
-      <c r="H52" t="s">
-        <v>119</v>
-      </c>
-      <c r="I52" s="4"/>
-      <c r="J52" s="5"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>49</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <f>$C$1*C53</f>
-        <v>3</v>
-      </c>
-      <c r="F53" s="2"/>
-      <c r="H53" t="s">
-        <v>166</v>
-      </c>
-      <c r="I53" s="4"/>
-      <c r="J53" s="5"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>35</v>
-      </c>
-      <c r="E54" t="s">
-        <v>168</v>
-      </c>
-      <c r="H54" t="s">
-        <v>167</v>
-      </c>
-      <c r="I54" s="4"/>
-      <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>173</v>
+      </c>
       <c r="H55" t="s">
-        <v>120</v>
-      </c>
-      <c r="I55" s="4"/>
-      <c r="J55" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>50</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E56" t="s">
-        <v>178</v>
+        <v>45</v>
+      </c>
+      <c r="B56" t="s">
+        <v>197</v>
       </c>
       <c r="H56" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>45</v>
-      </c>
-      <c r="B57" t="s">
-        <v>202</v>
-      </c>
-      <c r="H57" t="s">
-        <v>169</v>
-      </c>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="1"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2601,7 +2560,7 @@
   <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2614,7 +2573,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1">
@@ -2671,7 +2630,7 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2681,12 +2640,12 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -2695,30 +2654,30 @@
       <c r="A6"/>
       <c r="G6"/>
       <c r="H6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2728,14 +2687,14 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2758,10 +2717,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2784,10 +2743,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2810,7 +2769,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2823,23 +2782,23 @@
         <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s">
         <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2849,10 +2808,10 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -3044,7 +3003,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3057,7 +3016,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1">
@@ -3102,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3112,7 +3071,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" t="s">
@@ -3130,10 +3089,10 @@
     </row>
     <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -3163,10 +3122,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -3179,7 +3138,7 @@
         <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G8" t="s">
         <v>15</v>
@@ -3189,10 +3148,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B9" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -3205,7 +3164,7 @@
         <v>31</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G9" t="s">
         <v>27</v>
@@ -3406,71 +3365,71 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B11" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
